--- a/doc/MainActivity.xlsx
+++ b/doc/MainActivity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24060" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,45 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -41,7 +62,52 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -49,36 +115,15 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -86,22 +131,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -109,21 +161,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -131,45 +169,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -183,55 +183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +201,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,103 +351,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,15 +401,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -425,6 +416,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -432,15 +447,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,17 +466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,148 +479,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -630,55 +630,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -711,8 +711,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7379335" y="2738755"/>
-          <a:ext cx="1314450" cy="1224915"/>
+          <a:off x="6922135" y="2643505"/>
+          <a:ext cx="1268730" cy="1180465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -796,8 +796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9675495" y="1203960"/>
-          <a:ext cx="2416810" cy="647065"/>
+          <a:off x="9081135" y="1165860"/>
+          <a:ext cx="2279650" cy="621665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -964,8 +964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9653905" y="2081530"/>
-          <a:ext cx="2458085" cy="576580"/>
+          <a:off x="9059545" y="2011680"/>
+          <a:ext cx="2320925" cy="557530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1140,8 +1140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9676130" y="2710180"/>
-          <a:ext cx="2129155" cy="814070"/>
+          <a:off x="9081770" y="2614930"/>
+          <a:ext cx="1991995" cy="788670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1336,8 +1336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9686925" y="3625215"/>
-          <a:ext cx="2120265" cy="889000"/>
+          <a:off x="9092565" y="3498215"/>
+          <a:ext cx="1983105" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1560,8 +1560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9703435" y="4663440"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="9109075" y="4498340"/>
+          <a:ext cx="1223010" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,8 +1736,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350635" y="123190"/>
-          <a:ext cx="3030855" cy="887095"/>
+          <a:off x="5984875" y="123190"/>
+          <a:ext cx="2847975" cy="855345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1979,8 +1979,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8693785" y="1527175"/>
-          <a:ext cx="981710" cy="1820545"/>
+          <a:off x="8190865" y="1476375"/>
+          <a:ext cx="890270" cy="1757045"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2029,8 +2029,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8693785" y="2372995"/>
-          <a:ext cx="960120" cy="974725"/>
+          <a:off x="8190865" y="2290445"/>
+          <a:ext cx="868680" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2079,8 +2079,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8693785" y="3117215"/>
-          <a:ext cx="982345" cy="230505"/>
+          <a:off x="8190865" y="3009265"/>
+          <a:ext cx="890905" cy="224155"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2129,8 +2129,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9380855" y="567055"/>
-          <a:ext cx="294640" cy="960120"/>
+          <a:off x="8832215" y="548005"/>
+          <a:ext cx="248920" cy="928370"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2179,8 +2179,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8693785" y="3347720"/>
-          <a:ext cx="993140" cy="718820"/>
+          <a:off x="8190865" y="3233420"/>
+          <a:ext cx="901700" cy="693420"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2229,8 +2229,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8693785" y="3347720"/>
-          <a:ext cx="1009650" cy="1590040"/>
+          <a:off x="8190865" y="3233420"/>
+          <a:ext cx="918210" cy="1532890"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2276,8 +2276,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15730220" y="7169785"/>
-          <a:ext cx="5730240" cy="1310005"/>
+          <a:off x="14770100" y="6915785"/>
+          <a:ext cx="5364480" cy="1265555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2580,8 +2580,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15749905" y="9392920"/>
-          <a:ext cx="1621155" cy="554355"/>
+          <a:off x="14789785" y="9062720"/>
+          <a:ext cx="1529715" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2756,8 +2756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3321685" y="4616450"/>
-          <a:ext cx="2140585" cy="554355"/>
+          <a:off x="3138805" y="4457700"/>
+          <a:ext cx="2003425" cy="528955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2932,8 +2932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12945110" y="1242060"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="12167870" y="1200150"/>
+          <a:ext cx="1223010" cy="532765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3108,8 +3108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12966700" y="1902460"/>
-          <a:ext cx="1452245" cy="554355"/>
+          <a:off x="12189460" y="1838960"/>
+          <a:ext cx="1360805" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3284,8 +3284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12987020" y="2675255"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="12209780" y="2580005"/>
+          <a:ext cx="1223010" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3460,8 +3460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13008610" y="3326765"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="12231370" y="3212465"/>
+          <a:ext cx="1223010" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3636,8 +3636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13039725" y="4067175"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="12262485" y="3927475"/>
+          <a:ext cx="1223010" cy="530225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3812,8 +3812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13018770" y="4892675"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="12241530" y="4721225"/>
+          <a:ext cx="1223010" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3988,8 +3988,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14786610" y="1265555"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="13872210" y="1221105"/>
+          <a:ext cx="1223010" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4164,8 +4164,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14808200" y="1925955"/>
-          <a:ext cx="1452245" cy="554355"/>
+          <a:off x="13893800" y="1862455"/>
+          <a:ext cx="1360805" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4341,8 +4341,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14828520" y="2698750"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="13914120" y="2603500"/>
+          <a:ext cx="1223010" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4518,8 +4518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14850110" y="3350260"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="13935710" y="3235960"/>
+          <a:ext cx="1223010" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4695,8 +4695,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14881225" y="4090670"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="13966825" y="3944620"/>
+          <a:ext cx="1223010" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4872,8 +4872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14860270" y="4916170"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="13945870" y="4744720"/>
+          <a:ext cx="1223010" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5049,8 +5049,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7401560" y="7688580"/>
-          <a:ext cx="3241040" cy="779780"/>
+          <a:off x="6944360" y="7415530"/>
+          <a:ext cx="3058160" cy="754380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5225,8 +5225,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11529060" y="7579360"/>
-          <a:ext cx="2980055" cy="970280"/>
+          <a:off x="10843260" y="7312660"/>
+          <a:ext cx="2797175" cy="932180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5322,8 +5322,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10641965" y="8064500"/>
-          <a:ext cx="886460" cy="13970"/>
+          <a:off x="10001885" y="7778750"/>
+          <a:ext cx="840740" cy="13970"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5372,8 +5372,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14508480" y="7823200"/>
-          <a:ext cx="1221105" cy="240665"/>
+          <a:off x="13639800" y="7543800"/>
+          <a:ext cx="1129665" cy="234315"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5419,8 +5419,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7343775" y="9351645"/>
-          <a:ext cx="3241040" cy="718820"/>
+          <a:off x="6886575" y="9021445"/>
+          <a:ext cx="3058160" cy="693420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5595,8 +5595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11443970" y="8973185"/>
-          <a:ext cx="3362960" cy="1125220"/>
+          <a:off x="10758170" y="8655685"/>
+          <a:ext cx="3134360" cy="1087120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5800,8 +5800,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10584815" y="9535795"/>
-          <a:ext cx="859155" cy="175260"/>
+          <a:off x="9944735" y="9199245"/>
+          <a:ext cx="813435" cy="168910"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5850,8 +5850,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14806295" y="9535795"/>
-          <a:ext cx="942975" cy="134620"/>
+          <a:off x="13891895" y="9199245"/>
+          <a:ext cx="897255" cy="128270"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5897,8 +5897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7428865" y="6031230"/>
-          <a:ext cx="3349625" cy="1012825"/>
+          <a:off x="6971665" y="5821680"/>
+          <a:ext cx="3166745" cy="974725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5969,8 +5969,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11807190" y="1518920"/>
-          <a:ext cx="1137920" cy="2546350"/>
+          <a:off x="11075670" y="1468120"/>
+          <a:ext cx="1092200" cy="2457450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6016,8 +6016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16928465" y="1214755"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="15876905" y="1176655"/>
+          <a:ext cx="1268095" cy="535305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6195,8 +6195,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="16102330" y="1496060"/>
-          <a:ext cx="826135" cy="42545"/>
+          <a:off x="15096490" y="1445260"/>
+          <a:ext cx="780415" cy="42545"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6242,8 +6242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11877040" y="6029960"/>
-          <a:ext cx="3348990" cy="1163955"/>
+          <a:off x="11145520" y="5820410"/>
+          <a:ext cx="3166110" cy="1119505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6441,8 +6441,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10777855" y="6537325"/>
-          <a:ext cx="1098550" cy="77470"/>
+          <a:off x="10137775" y="6308725"/>
+          <a:ext cx="1007110" cy="71120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6491,8 +6491,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="11876405" y="2179320"/>
-          <a:ext cx="1089660" cy="4432935"/>
+          <a:off x="11144885" y="2103120"/>
+          <a:ext cx="1043940" cy="4274185"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -6543,8 +6543,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="11876405" y="2952115"/>
-          <a:ext cx="1109980" cy="3660775"/>
+          <a:off x="11144885" y="2850515"/>
+          <a:ext cx="1064260" cy="3527425"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -6592,8 +6592,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9632950" y="5285740"/>
-          <a:ext cx="2004060" cy="705485"/>
+          <a:off x="9038590" y="5101590"/>
+          <a:ext cx="1912620" cy="680085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6795,8 +6795,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11637010" y="3604260"/>
-          <a:ext cx="1370965" cy="2033905"/>
+          <a:off x="10951210" y="3477260"/>
+          <a:ext cx="1279525" cy="1964055"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -6844,8 +6844,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3016250" y="2195195"/>
-          <a:ext cx="3241675" cy="1100455"/>
+          <a:off x="2833370" y="2118995"/>
+          <a:ext cx="3058795" cy="1062355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7075,8 +7075,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6257925" y="1010285"/>
-          <a:ext cx="1607820" cy="1734820"/>
+          <a:off x="5892165" y="978535"/>
+          <a:ext cx="1516380" cy="1671320"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -7125,8 +7125,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6257925" y="2745105"/>
-          <a:ext cx="1120775" cy="605790"/>
+          <a:off x="5892165" y="2649855"/>
+          <a:ext cx="1029335" cy="586740"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7176,8 +7176,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="9103995" y="7042785"/>
-          <a:ext cx="6538595" cy="786130"/>
+          <a:off x="8555355" y="6795135"/>
+          <a:ext cx="6127115" cy="754380"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -7226,8 +7226,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="13343890" y="4100195"/>
-          <a:ext cx="871855" cy="9631045"/>
+          <a:off x="12513945" y="4083050"/>
+          <a:ext cx="840105" cy="9036685"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -7278,8 +7278,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4098925" y="4311015"/>
-          <a:ext cx="7068185" cy="464820"/>
+          <a:off x="3768725" y="4152265"/>
+          <a:ext cx="6814185" cy="464820"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
           <a:avLst>
@@ -7328,8 +7328,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2968625" y="250190"/>
-          <a:ext cx="3195320" cy="1195705"/>
+          <a:off x="2785745" y="243840"/>
+          <a:ext cx="3012440" cy="1151255"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7420,8 +7420,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4225925" y="1783715"/>
-          <a:ext cx="749300" cy="70485"/>
+          <a:off x="3964305" y="1720215"/>
+          <a:ext cx="723900" cy="70485"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7469,8 +7469,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16950055" y="1950085"/>
-          <a:ext cx="1314450" cy="554355"/>
+          <a:off x="15898495" y="1885950"/>
+          <a:ext cx="1246505" cy="529590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7648,8 +7648,234 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16260445" y="2209165"/>
-          <a:ext cx="689610" cy="18415"/>
+          <a:off x="15254605" y="2132965"/>
+          <a:ext cx="643890" cy="18415"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>649605</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15862300" y="3239770"/>
+          <a:ext cx="1246505" cy="529590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ViewController</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>imuStopUpdate()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15158085" y="3507740"/>
+          <a:ext cx="704215" cy="1270"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7934,15 +8160,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/MainActivity.xlsx
+++ b/doc/MainActivity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -31,6 +31,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -38,14 +45,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,30 +105,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,36 +142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -173,6 +157,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -183,31 +183,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +267,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +315,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,121 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,6 +374,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -401,17 +427,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,46 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,148 +479,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2260,8 +2260,8 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57785</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
@@ -2276,8 +2276,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14770100" y="6915785"/>
-          <a:ext cx="5364480" cy="1265555"/>
+          <a:off x="14770100" y="7063105"/>
+          <a:ext cx="5364480" cy="1118235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2436,7 +2436,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>previewBuilder = camera.createCaptureRequest(CameraDevice.TEMPLATE_PREVIEW);</a:t>
+            <a:t>  previewBuilder = camera.createCaptureRequest(CameraDevice.TEMPLATE_PREVIEW);</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -2452,7 +2452,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>imageReader.setOnImageAvailableListener(</a:t>
+            <a:t>  imageReader.setOnImageAvailableListener(</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -2500,7 +2500,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>camera.createCaptureSession(outputSurfaces, </a:t>
+            <a:t>  camera.createCaptureSession(outputSurfaces, </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -2563,15 +2563,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>387985</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>187960</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2580,8 +2580,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14789785" y="9062720"/>
-          <a:ext cx="1529715" cy="535305"/>
+          <a:off x="14908530" y="8675370"/>
+          <a:ext cx="4481830" cy="1126490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2724,7 +2724,71 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>updateCameraView()</a:t>
+            <a:t>updateCameraView(</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  previewBuilder.set();</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  session.setRepeatingRequest(previewBuilder.build(), null, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>handler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -5352,15 +5416,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>610235</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>367665</xdr:colOff>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -5372,8 +5436,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13639800" y="7543800"/>
-          <a:ext cx="1129665" cy="234315"/>
+          <a:off x="13640435" y="7622540"/>
+          <a:ext cx="1129665" cy="156210"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5830,15 +5894,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>175895</xdr:colOff>
+      <xdr:colOff>176530</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>69215</xdr:rowOff>
+      <xdr:colOff>506095</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -5850,8 +5914,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13891895" y="9199245"/>
-          <a:ext cx="897255" cy="128270"/>
+          <a:off x="13892530" y="9199245"/>
+          <a:ext cx="1015365" cy="34925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6224,16 +6288,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>172720</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>595630</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6242,7 +6306,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11145520" y="5820410"/>
+          <a:off x="11700510" y="5808345"/>
           <a:ext cx="3166110" cy="1119505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6421,15 +6485,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
+      <xdr:colOff>537210</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>172085</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -6441,8 +6505,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10137775" y="6308725"/>
-          <a:ext cx="1007110" cy="71120"/>
+          <a:off x="10138410" y="6309360"/>
+          <a:ext cx="1562100" cy="60960"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6470,16 +6534,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>172085</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>52070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
+      <xdr:colOff>530860</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>33655</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -6491,12 +6555,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="11144885" y="2103120"/>
-          <a:ext cx="1043940" cy="4274185"/>
+          <a:off x="11700510" y="2109470"/>
+          <a:ext cx="488950" cy="4260850"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -21727"/>
+            <a:gd name="adj1" fmla="val -48701"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -6522,16 +6586,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>172085</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>107315</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>550545</xdr:colOff>
+      <xdr:colOff>551180</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -6543,12 +6607,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="11144885" y="2850515"/>
-          <a:ext cx="1064260" cy="3527425"/>
+          <a:off x="11700510" y="2847975"/>
+          <a:ext cx="509270" cy="3522345"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -21331"/>
+            <a:gd name="adj1" fmla="val -46758"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7157,27 +7221,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>325755</xdr:colOff>
+      <xdr:colOff>325120</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:rowOff>109220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>280670</xdr:colOff>
+      <xdr:colOff>367665</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="53" name="Curved Connector 52"/>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="1"/>
           <a:endCxn id="10" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="8555355" y="6795135"/>
-          <a:ext cx="6127115" cy="754380"/>
+          <a:off x="8554720" y="6795770"/>
+          <a:ext cx="6214745" cy="826135"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -7231,7 +7296,7 @@
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 50039"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7312,14 +7377,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>42545</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>311785</xdr:colOff>
+      <xdr:colOff>310515</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>23495</xdr:rowOff>
+      <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7328,8 +7393,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2785745" y="243840"/>
-          <a:ext cx="3012440" cy="1151255"/>
+          <a:off x="2785745" y="54610"/>
+          <a:ext cx="3011170" cy="1470660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7357,7 +7422,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Interface TextureView.SurfaceTextureListener</a:t>
+            <a:t>Interface TextureView.SurfaceTextureListener{</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -7390,6 +7455,14 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>onSurfaceTextureUpdated</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -7400,15 +7473,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>176847</xdr:colOff>
+      <xdr:colOff>176530</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>22542</xdr:rowOff>
+      <xdr:rowOff>153670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>247332</xdr:colOff>
+      <xdr:colOff>248285</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>60642</xdr:rowOff>
+      <xdr:rowOff>61595</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -7420,12 +7493,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3964305" y="1720215"/>
-          <a:ext cx="723900" cy="70485"/>
+          <a:off x="4030345" y="1786255"/>
+          <a:ext cx="593725" cy="71755"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 49957"/>
+            <a:gd name="adj1" fmla="val 49945"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8164,8 +8237,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE51" sqref="AE51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
